--- a/c2/0.- Certamen año anterior/Resolucion/1.-.xlsx
+++ b/c2/0.- Certamen año anterior/Resolucion/1.-.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development Projects\0-Universidad\Contabilidad\c2\0.- Certamen año anterior\Resolucion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2707D61-B622-49A0-A448-07C08F7B0647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80811A2B-3855-4F10-972C-A63F13125ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>PROBLEMA 1</t>
   </si>
@@ -219,12 +220,6 @@
     <t>Pasivo</t>
   </si>
   <si>
-    <t>Perdida</t>
-  </si>
-  <si>
-    <t>Ganancia</t>
-  </si>
-  <si>
     <t>CUENTAS</t>
   </si>
   <si>
@@ -232,13 +227,147 @@
   </si>
   <si>
     <t>Totales iguales</t>
+  </si>
+  <si>
+    <t>Gasto</t>
+  </si>
+  <si>
+    <t>Ingreso</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Activos Corrientes</t>
+  </si>
+  <si>
+    <t>Corto Plazo (60%): Letras por cobrar que se esperan cobrar dentro del próximo año fiscal.</t>
+  </si>
+  <si>
+    <t>Largo Plazo (40%): Letras por cobrar que se esperan cobrar después de un año.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Activos</t>
+  </si>
+  <si>
+    <t>Pasivos</t>
+  </si>
+  <si>
+    <t>Pasivos Corrientes</t>
+  </si>
+  <si>
+    <t>Credito Hipotecario</t>
+  </si>
+  <si>
+    <t>impto renta por pagar</t>
+  </si>
+  <si>
+    <t>Pasivos No Corrientes</t>
+  </si>
+  <si>
+    <t>Activos No Corrientes</t>
+  </si>
+  <si>
+    <t>Total Pasivos</t>
+  </si>
+  <si>
+    <t>Patrimonio</t>
+  </si>
+  <si>
+    <t>Resultado ejercicio</t>
+  </si>
+  <si>
+    <t>Estado Integral de Resultados</t>
+  </si>
+  <si>
+    <t>Ingreso por ventas</t>
+  </si>
+  <si>
+    <t>Gastos de pubicidad</t>
+  </si>
+  <si>
+    <t>gastos de comercializa</t>
+  </si>
+  <si>
+    <t>gastos patente</t>
+  </si>
+  <si>
+    <t>intereses financieros</t>
+  </si>
+  <si>
+    <t>Gastos generales</t>
+  </si>
+  <si>
+    <t>gastos serv básicos</t>
+  </si>
+  <si>
+    <t>remuneraciones</t>
+  </si>
+  <si>
+    <t>Resultados ejercicio</t>
+  </si>
+  <si>
+    <t>Total (Margen Bruto)</t>
+  </si>
+  <si>
+    <t>Gastos operativos</t>
+  </si>
+  <si>
+    <t>Total (Resultado Operativo)</t>
+  </si>
+  <si>
+    <t>Resultado Operativo</t>
+  </si>
+  <si>
+    <t>Impuesto a la Renta (25%)</t>
+  </si>
+  <si>
+    <t>Resultado despues de Impuestos</t>
+  </si>
+  <si>
+    <t>Resultado del ejercicio despues de Impuestos</t>
+  </si>
+  <si>
+    <t>Total Patrimonio</t>
+  </si>
+  <si>
+    <t>Total Patrimonio y Pasivos</t>
+  </si>
+  <si>
+    <t>1.- Para saber en qué condiciones de liquidez se encuentra la empresa ante la eventualidad de no
+vender sus productos, la información que se debe utilizar es:</t>
+  </si>
+  <si>
+    <t>La condición de liquidez se evalúa comúnmente con el Test Ácido (también conocido como 
+Prueba de Ácido o Quick Ratio), que excluye los inventarios de los activos corrientes porque los 
+inventarios no son tan fácilmente convertibles en efectivo como otras cuentas.</t>
+  </si>
+  <si>
+    <t>2.- Cada cuántos días aproximadamente paga sus deudas BETA SA en el año 2012:</t>
+  </si>
+  <si>
+    <t>3.- BETA S.A. por cada peso de Activo, este se financia con deuda de terceros en:</t>
+  </si>
+  <si>
+    <t>4.- En qué condiciones se encuentras ALFA SA y BETA SA para determinar su capacidadgeneradora de recursos de corto plazo para cubrir sus obligaciones de corto plazo:</t>
+  </si>
+  <si>
+    <t>El Test Ácido indica que una proporción superior a 1 es generalmente favorable. 
+Por lo tanto, ALFA S.A. y BETA S.A. tienen la siguiente capacidad generadora de recursos de corto plazo:</t>
+  </si>
+  <si>
+    <t>5.- Cuál empresa presenta mejor Margen Bruto sobre las Ventas, de acuerdo a los antecedentes
+entregados:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +415,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +466,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -413,30 +615,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -472,15 +678,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,14 +687,166 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,6 +854,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -514,6 +868,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>773383</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8DD29C-EA5F-C7C7-99F9-574C6D160BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615941" y="167640"/>
+          <a:ext cx="3082242" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22859</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>626436</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8691E14-45AE-798C-BD04-322A489D65C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22859" y="1402080"/>
+          <a:ext cx="3773497" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>756951</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC6A5C8-4B3C-4F02-C1D7-6B7FF655FFE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3909060" y="1501140"/>
+          <a:ext cx="4772691" cy="581106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411481</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF326EAE-DCAB-5AF6-9F73-859613965C46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2484121"/>
+          <a:ext cx="3581400" cy="726182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472441</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC339F3-213F-970E-A7D8-81870AE3F499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3642361" y="2491740"/>
+          <a:ext cx="4701540" cy="666301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>682421</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485CDCBF-723C-D880-CD38-A77D87F5D33A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106681" y="4991100"/>
+          <a:ext cx="3745660" cy="865011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,414 +1546,414 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="5">
         <v>9456</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="5">
         <v>7300</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13">
+      <c r="B15" s="4"/>
+      <c r="C15" s="7">
         <v>1450</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="5">
         <v>10200</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="8">
         <v>800</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="5">
         <v>3500</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="5">
         <v>3900</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="5">
         <v>2950</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="8">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="5">
         <v>10130</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13">
+      <c r="B23" s="4"/>
+      <c r="C23" s="7">
         <v>3000</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="5">
         <v>225000</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="5">
         <v>1900</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="5">
         <v>1900</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="8">
         <v>980</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7">
         <v>2080</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="13">
+      <c r="B29" s="4"/>
+      <c r="C29" s="7">
         <v>180000</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="13">
+      <c r="B30" s="4"/>
+      <c r="C30" s="7">
         <v>39900</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="13">
+      <c r="B31" s="4"/>
+      <c r="C31" s="7">
         <v>4000</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="13">
+      <c r="B32" s="4"/>
+      <c r="C32" s="7">
         <v>3394</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="5">
         <v>2100</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="16">
+      <c r="B34" s="4"/>
+      <c r="C34" s="10">
         <v>650</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="16">
+      <c r="B35" s="4"/>
+      <c r="C35" s="10">
         <v>440</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="8">
         <v>130</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="8">
         <v>300</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="8">
         <v>270</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="8">
         <v>180</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="10"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="5">
         <v>2300</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="5">
         <v>14500</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13">
+      <c r="B42" s="4"/>
+      <c r="C42" s="7">
         <v>62900</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="11">
         <v>297814</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="12">
         <v>297814</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1345,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA90B102-C84E-46F9-8369-E6B239F7E5A4}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1358,583 +1981,1176 @@
     <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="F3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="28">
         <v>9456</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11">
+      <c r="C4" s="17"/>
+      <c r="D4" s="28">
         <v>9456</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="28">
         <v>7300</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11">
+      <c r="C5" s="17"/>
+      <c r="D5" s="28">
         <v>7300</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49">
         <v>1450</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="11">
+      <c r="D6" s="50"/>
+      <c r="E6" s="49">
         <v>1450</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:10" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="62">
         <v>10200</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11">
+      <c r="C7" s="61"/>
+      <c r="D7" s="62">
         <v>10200</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="I7" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="76"/>
+    </row>
+    <row r="8" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="43">
         <v>800</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14">
+      <c r="C8" s="17"/>
+      <c r="D8" s="43">
         <v>800</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="62">
         <v>3500</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62">
         <v>3500</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="I9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="31">
+        <v>9456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="62">
         <v>3900</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11">
+      <c r="C10" s="61"/>
+      <c r="D10" s="62">
         <v>3900</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="I10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="31">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="28">
         <v>2950</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11">
+      <c r="C11" s="17"/>
+      <c r="D11" s="28">
         <v>2950</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="I11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="34">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="8">
         <v>18</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="14">
+      <c r="C12" s="4"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="8">
         <v>18</v>
       </c>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="G12" s="16"/>
+      <c r="I12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="31">
+        <f>2950*0.6</f>
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="28">
         <v>10130</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11">
+      <c r="C13" s="17"/>
+      <c r="D13" s="28">
         <v>10130</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="I13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="31">
+        <v>10130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11">
+      <c r="B14" s="53"/>
+      <c r="C14" s="54">
         <v>3000</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="11">
+      <c r="D14" s="55"/>
+      <c r="E14" s="54">
         <v>3000</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="I14" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="16">
+        <f>SUM(J9:J13)</f>
+        <v>29456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="62">
         <v>225000</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62">
         <v>225000</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="36">
         <v>1900</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36">
         <v>1900</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="I16" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="71"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="36">
         <v>1900</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36">
         <v>1900</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="I17" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="31">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="39">
         <v>980</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="14">
+      <c r="C18" s="38"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="39">
         <v>980</v>
       </c>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="G18" s="41"/>
+      <c r="I18" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="31">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49">
         <v>2080</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="11">
+      <c r="D19" s="50"/>
+      <c r="E19" s="49">
         <v>2080</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="I19" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="31">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54">
         <v>180000</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="11">
+      <c r="D20" s="55"/>
+      <c r="E20" s="54">
         <v>180000</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="I20" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="31">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11">
+      <c r="B21" s="48"/>
+      <c r="C21" s="49">
         <v>39900</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49">
         <v>39900</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="I21" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="31">
+        <f>2950*0.4</f>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54">
         <v>4000</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="11">
+      <c r="D22" s="55"/>
+      <c r="E22" s="54">
         <v>4000</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="I22" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="32">
+        <f>SUM(J17:J21)</f>
+        <v>243780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11">
+      <c r="B23" s="48"/>
+      <c r="C23" s="49">
         <v>3394</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49">
         <v>3394</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="36">
         <v>2100</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36">
         <v>2100</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="I24" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="46">
+        <f>J14+J22</f>
+        <v>273236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="14">
+      <c r="B25" s="48"/>
+      <c r="C25" s="52">
         <v>650</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="14">
+      <c r="D25" s="50"/>
+      <c r="E25" s="52">
         <v>650</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="14">
+      <c r="B26" s="48"/>
+      <c r="C26" s="52">
         <v>440</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="14">
+      <c r="D26" s="50"/>
+      <c r="E26" s="52">
         <v>440</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="I26" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="76"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="39">
         <v>130</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="14">
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="39">
         <v>130</v>
       </c>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="G27" s="41"/>
+      <c r="I27" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="66"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="39">
         <v>300</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="14">
+      <c r="C28" s="38"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="39">
         <v>300</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="G28" s="42"/>
+      <c r="I28" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="16">
+        <v>18</v>
+      </c>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="39">
         <v>270</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="14">
+      <c r="C29" s="38"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="39">
         <v>270</v>
       </c>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="G29" s="41"/>
+      <c r="I29" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="16">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="39">
         <v>180</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="14">
+      <c r="C30" s="38"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="39">
         <v>180</v>
       </c>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="G30" s="41"/>
+      <c r="I30" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="42">
         <v>2300</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="11">
+      <c r="C31" s="38"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42">
         <v>2300</v>
       </c>
-      <c r="G31" s="11">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="G31" s="42"/>
+      <c r="I31" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="42">
         <v>14500</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="11">
+      <c r="C32" s="38"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42">
         <v>14500</v>
       </c>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="G32" s="41"/>
+      <c r="I32" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="16">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5">
         <v>62900</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="11">
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="5">
         <v>62900</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="I33" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="11">
         <v>297814</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="11">
         <v>297814</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="15">
         <f>SUM(D4:D33)</f>
         <v>279136</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="16">
         <f>SUM(E4:E33)</f>
         <v>234914</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="16">
         <f>SUM(F4:F33)</f>
         <v>18678</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="16">
         <f>SUM(G4:G33)</f>
-        <v>65200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="25">
+        <v>62900</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="16">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16">
         <f>D34-E34</f>
         <v>44222</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="16">
         <f>G34-F34</f>
-        <v>46522</v>
-      </c>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="25">
+        <v>44222</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="I35" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="32">
+        <f>SUM(J28:J34)</f>
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="16">
         <f>D34</f>
         <v>279136</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="16">
         <f>E34+E35</f>
         <v>279136</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="16">
         <f>F34+F35</f>
-        <v>65200</v>
-      </c>
-      <c r="G36" s="25">
+        <v>62900</v>
+      </c>
+      <c r="G36" s="16">
         <f>G34</f>
-        <v>65200</v>
+        <v>62900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="75"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="16">
+        <v>62900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="I39" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="16">
+        <v>-14500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="I40" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="16">
+        <f>SUM(J38:J39)</f>
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" s="16">
+        <f>J40-J35</f>
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I43" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" s="75"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="16">
+        <f>J41</f>
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I45" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="16">
+        <f>J44*0.25</f>
+        <v>11055.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I46" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" s="16">
+        <f>J44-J45</f>
+        <v>33166.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I48" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="76"/>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I49" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" s="66"/>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I50" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="31">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I51" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="31">
+        <f>(180000/60)*10</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I52" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="31">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I53" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" s="34">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I54" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="34">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I55" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J55" s="16">
+        <f>J45</f>
+        <v>11055.5</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I56" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="16">
+        <f>SUM(J50:J55)</f>
+        <v>47619.5</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I58" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="71"/>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I59" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="16">
+        <f>E22+E14</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I60" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J60" s="16">
+        <f>E20-J51</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I61" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" s="16">
+        <f>J59+J60</f>
+        <v>157000</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I63" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="46">
+        <f>J56+J61</f>
+        <v>204619.5</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I65" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" s="76"/>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I66" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="66"/>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I67" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="31">
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I68" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="31">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I69" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" s="31">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I70" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="31">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I71" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="31">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I72" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J72" s="32">
+        <f>J46</f>
+        <v>33166.5</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I74" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="J74" s="46">
+        <f>SUM(J67:J72)</f>
+        <v>68616.5</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I76" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="46">
+        <f>J63+J74</f>
+        <v>273236</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="18">
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A40:E40"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A39:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D1CE00-6926-46E1-96D3-D7BE854879C1}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="78"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="78"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="79"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+    </row>
+    <row r="18" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="23" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>